--- a/brasileirao/arq_backup/cadastro.xlsx
+++ b/brasileirao/arq_backup/cadastro.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leo\git\brasileirao\brasileirao\src\arquivos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leo\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -41,9 +41,6 @@
     <t>Jogador</t>
   </si>
   <si>
-    <t>Posição</t>
-  </si>
-  <si>
     <t>Goleiro</t>
   </si>
   <si>
@@ -59,15 +56,9 @@
     <t>Atacante</t>
   </si>
   <si>
-    <t>Atlético-MG</t>
-  </si>
-  <si>
     <t>Fluminense</t>
   </si>
   <si>
-    <t>São Paulo</t>
-  </si>
-  <si>
     <t>Botafogo</t>
   </si>
   <si>
@@ -77,18 +68,9 @@
     <t>Fortaleza</t>
   </si>
   <si>
-    <t>Atlético-GO</t>
-  </si>
-  <si>
-    <t>Avaí</t>
-  </si>
-  <si>
     <t>Coritiba</t>
   </si>
   <si>
-    <t>América-MG</t>
-  </si>
-  <si>
     <t>Flamengo</t>
   </si>
   <si>
@@ -104,15 +86,6 @@
     <t>Internacional</t>
   </si>
   <si>
-    <t>Ceará</t>
-  </si>
-  <si>
-    <t>Goiás</t>
-  </si>
-  <si>
-    <t>Cuiabá</t>
-  </si>
-  <si>
     <t>Athletico-PR</t>
   </si>
   <si>
@@ -131,9 +104,6 @@
     <t>Matias Zaracho</t>
   </si>
   <si>
-    <t>Ignacio Fernández</t>
-  </si>
-  <si>
     <t>Rubens</t>
   </si>
   <si>
@@ -146,12 +116,6 @@
     <t>Gabriel Delfim</t>
   </si>
   <si>
-    <t>Réver</t>
-  </si>
-  <si>
-    <t>Dodô</t>
-  </si>
-  <si>
     <t>Marcos Felipe</t>
   </si>
   <si>
@@ -170,9 +134,6 @@
     <t>Wellington</t>
   </si>
   <si>
-    <t>André Trindade</t>
-  </si>
-  <si>
     <t>Nonato</t>
   </si>
   <si>
@@ -185,9 +146,6 @@
     <t>Fred</t>
   </si>
   <si>
-    <t>Wéverton</t>
-  </si>
-  <si>
     <t>Jorge</t>
   </si>
   <si>
@@ -251,9 +209,6 @@
     <t>Diego Loureiro</t>
   </si>
   <si>
-    <t>Marçal</t>
-  </si>
-  <si>
     <t>Joel Carli</t>
   </si>
   <si>
@@ -323,9 +278,6 @@
     <t>Brayan Ceballos</t>
   </si>
   <si>
-    <t>Emanuel Brítez</t>
-  </si>
-  <si>
     <t>Juninho Capixaba</t>
   </si>
   <si>
@@ -389,9 +341,6 @@
     <t>Diego Matos</t>
   </si>
   <si>
-    <t>Betão</t>
-  </si>
-  <si>
     <t>Raniele</t>
   </si>
   <si>
@@ -419,9 +368,6 @@
     <t>Alex Muralha</t>
   </si>
   <si>
-    <t>Márcio Silva</t>
-  </si>
-  <si>
     <t>Matheus Alexandre</t>
   </si>
   <si>
@@ -437,18 +383,12 @@
     <t>Matias Galarza</t>
   </si>
   <si>
-    <t>Régis</t>
-  </si>
-  <si>
     <t>Robinho</t>
   </si>
   <si>
     <t>Hernan Perez</t>
   </si>
   <si>
-    <t>Neílton</t>
-  </si>
-  <si>
     <t>Keiller</t>
   </si>
   <si>
@@ -461,9 +401,6 @@
     <t>Fabricio Bustos</t>
   </si>
   <si>
-    <t>Renê</t>
-  </si>
-  <si>
     <t>Johnny</t>
   </si>
   <si>
@@ -488,9 +425,6 @@
     <t>Maicon</t>
   </si>
   <si>
-    <t>Cléber Reis</t>
-  </si>
-  <si>
     <t>Auro Junior</t>
   </si>
   <si>
@@ -533,9 +467,6 @@
     <t>Christian</t>
   </si>
   <si>
-    <t>Léo Cittadini</t>
-  </si>
-  <si>
     <t>Alex Santana</t>
   </si>
   <si>
@@ -548,18 +479,9 @@
     <t>Bissoli</t>
   </si>
   <si>
-    <t>João Ricardo</t>
-  </si>
-  <si>
     <t>Messias</t>
   </si>
   <si>
-    <t>Luiz Otávio</t>
-  </si>
-  <si>
-    <t>Nino Paraíba</t>
-  </si>
-  <si>
     <t>Bruno Pacheco</t>
   </si>
   <si>
@@ -578,9 +500,6 @@
     <t>Jael</t>
   </si>
   <si>
-    <t>Zé Roberto</t>
-  </si>
-  <si>
     <t>Carlo Miguel</t>
   </si>
   <si>
@@ -590,12 +509,6 @@
     <t>Robson Bambu</t>
   </si>
   <si>
-    <t>Fágner</t>
-  </si>
-  <si>
-    <t>Fábio Santos</t>
-  </si>
-  <si>
     <t>Renato Augusto</t>
   </si>
   <si>
@@ -611,24 +524,12 @@
     <t>Adson</t>
   </si>
   <si>
-    <t>Jô</t>
-  </si>
-  <si>
-    <t>Cleiiton</t>
-  </si>
-  <si>
     <t>Aderlan</t>
   </si>
   <si>
-    <t>Léo Ortiz</t>
-  </si>
-  <si>
     <t>Leonardo Realpe</t>
   </si>
   <si>
-    <t>Luan Cândido</t>
-  </si>
-  <si>
     <t>Lucas Evangelista</t>
   </si>
   <si>
@@ -641,21 +542,12 @@
     <t>Bruno Praxedes</t>
   </si>
   <si>
-    <t>Bruno Gonçalves</t>
-  </si>
-  <si>
     <t>Gabriel Novaes</t>
   </si>
   <si>
-    <t>João Carlos</t>
-  </si>
-  <si>
     <t>Juan Ojeda</t>
   </si>
   <si>
-    <t>Paulão</t>
-  </si>
-  <si>
     <t>Daniel Guedes</t>
   </si>
   <si>
@@ -665,9 +557,6 @@
     <t>Rafael Gava</t>
   </si>
   <si>
-    <t>Pepê</t>
-  </si>
-  <si>
     <t>Gabriel Pirani</t>
   </si>
   <si>
@@ -692,9 +581,6 @@
     <t>Rodinei</t>
   </si>
   <si>
-    <t>Filipe Luís</t>
-  </si>
-  <si>
     <t>Thiago Maia</t>
   </si>
   <si>
@@ -713,15 +599,9 @@
     <t>Jori</t>
   </si>
   <si>
-    <t>Éder</t>
-  </si>
-  <si>
     <t>Gabriel Gomes</t>
   </si>
   <si>
-    <t>Raul Cáceres</t>
-  </si>
-  <si>
     <t>Danilo Avelar</t>
   </si>
   <si>
@@ -734,12 +614,6 @@
     <t>Juan Pablo Ramirez</t>
   </si>
   <si>
-    <t>Alê</t>
-  </si>
-  <si>
-    <t>Aloísio</t>
-  </si>
-  <si>
     <t>Henrique Almeida</t>
   </si>
   <si>
@@ -779,70 +653,196 @@
     <t>Everton Ribeiro</t>
   </si>
   <si>
-    <t>Técnico</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>L</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>O</t>
-  </si>
-  <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>H</t>
-  </si>
-  <si>
-    <t>I</t>
-  </si>
-  <si>
-    <t>J</t>
-  </si>
-  <si>
-    <t>K</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>T</t>
-  </si>
-  <si>
-    <t>Q</t>
-  </si>
-  <si>
     <t>idTreinador</t>
+  </si>
+  <si>
+    <t>Atletico-MG</t>
+  </si>
+  <si>
+    <t>Sao Paulo</t>
+  </si>
+  <si>
+    <t>Atletico-GO</t>
+  </si>
+  <si>
+    <t>Avai</t>
+  </si>
+  <si>
+    <t>Ceara</t>
+  </si>
+  <si>
+    <t>Cuiaba</t>
+  </si>
+  <si>
+    <t>America-MG</t>
+  </si>
+  <si>
+    <t>Goias</t>
+  </si>
+  <si>
+    <t>Tecnico</t>
+  </si>
+  <si>
+    <t>Posicao</t>
+  </si>
+  <si>
+    <t>Dodo</t>
+  </si>
+  <si>
+    <t>Rever</t>
+  </si>
+  <si>
+    <t>Ignacio Fernandez</t>
+  </si>
+  <si>
+    <t>Andre Trindade</t>
+  </si>
+  <si>
+    <t>Weverton</t>
+  </si>
+  <si>
+    <t>Marcal</t>
+  </si>
+  <si>
+    <t>Emanuel Britez</t>
+  </si>
+  <si>
+    <t>Betao</t>
+  </si>
+  <si>
+    <t>Marcio Silva</t>
+  </si>
+  <si>
+    <t>Regis</t>
+  </si>
+  <si>
+    <t>Neilton</t>
+  </si>
+  <si>
+    <t>Rene</t>
+  </si>
+  <si>
+    <t>Cleber Reis</t>
+  </si>
+  <si>
+    <t>Leo Cittadini</t>
+  </si>
+  <si>
+    <t>Joao Ricardo</t>
+  </si>
+  <si>
+    <t>Luiz Otavio</t>
+  </si>
+  <si>
+    <t>Nino Paraiba</t>
+  </si>
+  <si>
+    <t>Ze Roberto</t>
+  </si>
+  <si>
+    <t>Fabio Santos</t>
+  </si>
+  <si>
+    <t>Fagner</t>
+  </si>
+  <si>
+    <t>Jo</t>
+  </si>
+  <si>
+    <t>Cleiton</t>
+  </si>
+  <si>
+    <t>Luan Candido</t>
+  </si>
+  <si>
+    <t>Leo Ortiz</t>
+  </si>
+  <si>
+    <t>Bruno Goncalves</t>
+  </si>
+  <si>
+    <t>Joao Carlos</t>
+  </si>
+  <si>
+    <t>Paulao</t>
+  </si>
+  <si>
+    <t>Pepe</t>
+  </si>
+  <si>
+    <t>Filipe Luis</t>
+  </si>
+  <si>
+    <t>Eder</t>
+  </si>
+  <si>
+    <t>Raul Caceres</t>
+  </si>
+  <si>
+    <t>Ale</t>
+  </si>
+  <si>
+    <t>Aloisio</t>
+  </si>
+  <si>
+    <t>Alexi Stival</t>
+  </si>
+  <si>
+    <t>Fernando Diniz</t>
+  </si>
+  <si>
+    <t>Rogerio Ceni</t>
+  </si>
+  <si>
+    <t>Abel Ferreira</t>
+  </si>
+  <si>
+    <t>Luis Castro</t>
+  </si>
+  <si>
+    <t>Umberto Louzer</t>
+  </si>
+  <si>
+    <t>Juan Pablo Vojvoda</t>
+  </si>
+  <si>
+    <t>Eduardo Baptista</t>
+  </si>
+  <si>
+    <t>Eduardo Barroca</t>
+  </si>
+  <si>
+    <t>Guto Ferreira</t>
+  </si>
+  <si>
+    <t>Mano Menezes</t>
+  </si>
+  <si>
+    <t>Lisca</t>
+  </si>
+  <si>
+    <t>Felipao</t>
+  </si>
+  <si>
+    <t>Lucho Gonzalez</t>
+  </si>
+  <si>
+    <t>Vitor Pereira</t>
+  </si>
+  <si>
+    <t>Mauricio Barbieri</t>
+  </si>
+  <si>
+    <t>Antonio Oliveira</t>
+  </si>
+  <si>
+    <t>Dorival Junior</t>
+  </si>
+  <si>
+    <t>Vagner Mancini</t>
+  </si>
+  <si>
+    <t>Jair Ventura</t>
   </si>
 </sst>
 </file>
@@ -1172,8 +1172,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H221"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A190" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F213" sqref="F213"/>
+    <sheetView tabSelected="1" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
+      <selection activeCell="D222" sqref="D222"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1192,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>272</v>
+        <v>209</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>251</v>
+        <v>218</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>5</v>
+        <v>219</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>4</v>
@@ -1212,22 +1212,22 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>11</v>
+        <v>210</v>
       </c>
       <c r="C2" s="3">
         <v>221</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G2" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1235,22 +1235,22 @@
         <v>0</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>11</v>
+        <v>210</v>
       </c>
       <c r="C3" s="3">
         <v>221</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E3" s="1">
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="G3" t="s">
-        <v>41</v>
+        <v>220</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -1258,22 +1258,22 @@
         <v>0</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>11</v>
+        <v>210</v>
       </c>
       <c r="C4" s="3">
         <v>221</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E4" s="3">
         <v>2</v>
       </c>
       <c r="F4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G4" t="s">
-        <v>40</v>
+        <v>221</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -1281,22 +1281,22 @@
         <v>0</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>11</v>
+        <v>210</v>
       </c>
       <c r="C5" s="3">
         <v>221</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E5" s="3">
         <v>3</v>
       </c>
       <c r="F5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G5" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -1304,22 +1304,22 @@
         <v>0</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>11</v>
+        <v>210</v>
       </c>
       <c r="C6" s="3">
         <v>221</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E6" s="3">
         <v>4</v>
       </c>
       <c r="F6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G6" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -1327,22 +1327,22 @@
         <v>0</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>11</v>
+        <v>210</v>
       </c>
       <c r="C7" s="3">
         <v>221</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E7" s="3">
         <v>5</v>
       </c>
       <c r="F7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G7" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -1350,22 +1350,22 @@
         <v>0</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>11</v>
+        <v>210</v>
       </c>
       <c r="C8" s="3">
         <v>221</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E8" s="3">
         <v>6</v>
       </c>
       <c r="F8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G8" t="s">
-        <v>35</v>
+        <v>222</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -1373,22 +1373,22 @@
         <v>0</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>11</v>
+        <v>210</v>
       </c>
       <c r="C9" s="3">
         <v>221</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E9" s="3">
         <v>7</v>
       </c>
       <c r="F9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G9" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -1396,22 +1396,22 @@
         <v>0</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>11</v>
+        <v>210</v>
       </c>
       <c r="C10" s="3">
         <v>221</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E10" s="3">
         <v>8</v>
       </c>
       <c r="F10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G10" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -1419,22 +1419,22 @@
         <v>0</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>11</v>
+        <v>210</v>
       </c>
       <c r="C11" s="3">
         <v>221</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E11" s="3">
         <v>9</v>
       </c>
       <c r="F11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G11" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -1442,22 +1442,22 @@
         <v>0</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>11</v>
+        <v>210</v>
       </c>
       <c r="C12" s="3">
         <v>221</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E12" s="3">
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G12" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -1465,7 +1465,7 @@
         <v>1</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C13" s="3">
         <v>222</v>
@@ -1477,10 +1477,10 @@
         <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G13" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -1488,7 +1488,7 @@
         <v>1</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C14" s="3">
         <v>222</v>
@@ -1500,10 +1500,10 @@
         <v>12</v>
       </c>
       <c r="F14" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="G14" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -1511,7 +1511,7 @@
         <v>1</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C15" s="3">
         <v>222</v>
@@ -1523,10 +1523,10 @@
         <v>13</v>
       </c>
       <c r="F15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G15" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -1534,7 +1534,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C16" s="3">
         <v>222</v>
@@ -1546,10 +1546,10 @@
         <v>14</v>
       </c>
       <c r="F16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G16" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -1557,7 +1557,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C17" s="3">
         <v>222</v>
@@ -1569,10 +1569,10 @@
         <v>15</v>
       </c>
       <c r="F17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -1580,7 +1580,7 @@
         <v>1</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C18" s="3">
         <v>222</v>
@@ -1592,10 +1592,10 @@
         <v>16</v>
       </c>
       <c r="F18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G18" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -1603,7 +1603,7 @@
         <v>1</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C19" s="3">
         <v>222</v>
@@ -1615,10 +1615,10 @@
         <v>17</v>
       </c>
       <c r="F19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G19" t="s">
-        <v>48</v>
+        <v>223</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -1626,7 +1626,7 @@
         <v>1</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C20" s="3">
         <v>222</v>
@@ -1638,10 +1638,10 @@
         <v>18</v>
       </c>
       <c r="F20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G20" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -1649,7 +1649,7 @@
         <v>1</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C21" s="3">
         <v>222</v>
@@ -1661,10 +1661,10 @@
         <v>19</v>
       </c>
       <c r="F21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G21" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -1672,7 +1672,7 @@
         <v>1</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C22" s="3">
         <v>222</v>
@@ -1684,10 +1684,10 @@
         <v>20</v>
       </c>
       <c r="F22" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G22" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -1695,7 +1695,7 @@
         <v>1</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C23" s="3">
         <v>222</v>
@@ -1707,10 +1707,10 @@
         <v>21</v>
       </c>
       <c r="F23" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G23" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -1718,7 +1718,7 @@
         <v>2</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>13</v>
+        <v>211</v>
       </c>
       <c r="C24" s="3">
         <v>223</v>
@@ -1730,10 +1730,10 @@
         <v>22</v>
       </c>
       <c r="F24" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G24" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -1741,7 +1741,7 @@
         <v>2</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>13</v>
+        <v>211</v>
       </c>
       <c r="C25" s="3">
         <v>223</v>
@@ -1753,10 +1753,10 @@
         <v>23</v>
       </c>
       <c r="F25" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="G25" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -1764,7 +1764,7 @@
         <v>2</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>13</v>
+        <v>211</v>
       </c>
       <c r="C26" s="3">
         <v>223</v>
@@ -1776,10 +1776,10 @@
         <v>24</v>
       </c>
       <c r="F26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G26" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -1787,7 +1787,7 @@
         <v>2</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>13</v>
+        <v>211</v>
       </c>
       <c r="C27" s="3">
         <v>223</v>
@@ -1799,10 +1799,10 @@
         <v>25</v>
       </c>
       <c r="F27" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G27" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -1810,7 +1810,7 @@
         <v>2</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>13</v>
+        <v>211</v>
       </c>
       <c r="C28" s="3">
         <v>223</v>
@@ -1822,10 +1822,10 @@
         <v>26</v>
       </c>
       <c r="F28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G28" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -1833,7 +1833,7 @@
         <v>2</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>13</v>
+        <v>211</v>
       </c>
       <c r="C29" s="3">
         <v>223</v>
@@ -1845,10 +1845,10 @@
         <v>27</v>
       </c>
       <c r="F29" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G29" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -1856,7 +1856,7 @@
         <v>2</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>13</v>
+        <v>211</v>
       </c>
       <c r="C30" s="3">
         <v>223</v>
@@ -1868,10 +1868,10 @@
         <v>28</v>
       </c>
       <c r="F30" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G30" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -1879,7 +1879,7 @@
         <v>2</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>13</v>
+        <v>211</v>
       </c>
       <c r="C31" s="3">
         <v>223</v>
@@ -1891,10 +1891,10 @@
         <v>29</v>
       </c>
       <c r="F31" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G31" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -1902,7 +1902,7 @@
         <v>2</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>13</v>
+        <v>211</v>
       </c>
       <c r="C32" s="3">
         <v>223</v>
@@ -1914,10 +1914,10 @@
         <v>30</v>
       </c>
       <c r="F32" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G32" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -1925,7 +1925,7 @@
         <v>2</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>13</v>
+        <v>211</v>
       </c>
       <c r="C33" s="3">
         <v>223</v>
@@ -1937,10 +1937,10 @@
         <v>31</v>
       </c>
       <c r="F33" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G33" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -1948,7 +1948,7 @@
         <v>2</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>13</v>
+        <v>211</v>
       </c>
       <c r="C34" s="3">
         <v>223</v>
@@ -1960,10 +1960,10 @@
         <v>32</v>
       </c>
       <c r="F34" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G34" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -1977,16 +1977,16 @@
         <v>224</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="E35" s="3">
         <v>33</v>
       </c>
       <c r="F35" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G35" t="s">
-        <v>53</v>
+        <v>224</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -2000,16 +2000,16 @@
         <v>224</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="E36" s="3">
         <v>34</v>
       </c>
       <c r="F36" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="G36" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -2023,16 +2023,16 @@
         <v>224</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="E37" s="3">
         <v>35</v>
       </c>
       <c r="F37" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G37" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -2046,16 +2046,16 @@
         <v>224</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="E38" s="3">
         <v>36</v>
       </c>
       <c r="F38" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G38" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -2069,16 +2069,16 @@
         <v>224</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="E39" s="3">
         <v>37</v>
       </c>
       <c r="F39" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G39" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -2092,16 +2092,16 @@
         <v>224</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="E40" s="3">
         <v>38</v>
       </c>
       <c r="F40" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G40" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -2115,16 +2115,16 @@
         <v>224</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="E41" s="3">
         <v>39</v>
       </c>
       <c r="F41" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G41" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -2138,16 +2138,16 @@
         <v>224</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="E42" s="3">
         <v>40</v>
       </c>
       <c r="F42" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G42" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -2161,16 +2161,16 @@
         <v>224</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="E43" s="3">
         <v>41</v>
       </c>
       <c r="F43" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G43" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -2184,16 +2184,16 @@
         <v>224</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="E44" s="3">
         <v>42</v>
       </c>
       <c r="F44" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G44" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -2207,16 +2207,16 @@
         <v>224</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="E45" s="3">
         <v>43</v>
       </c>
       <c r="F45" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G45" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -2224,22 +2224,22 @@
         <v>4</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C46" s="3">
         <v>225</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="E46" s="3">
         <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G46" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -2247,22 +2247,22 @@
         <v>4</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C47" s="3">
         <v>225</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="E47" s="3">
         <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="G47" t="s">
-        <v>75</v>
+        <v>225</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -2270,22 +2270,22 @@
         <v>4</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C48" s="3">
         <v>225</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="E48" s="3">
         <v>46</v>
       </c>
       <c r="F48" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G48" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -2293,22 +2293,22 @@
         <v>4</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C49" s="3">
         <v>225</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="E49" s="3">
         <v>47</v>
       </c>
       <c r="F49" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G49" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -2316,22 +2316,22 @@
         <v>4</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C50" s="3">
         <v>225</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="E50" s="3">
         <v>48</v>
       </c>
       <c r="F50" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G50" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -2339,22 +2339,22 @@
         <v>4</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C51" s="3">
         <v>225</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="E51" s="3">
         <v>49</v>
       </c>
       <c r="F51" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G51" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -2362,22 +2362,22 @@
         <v>4</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C52" s="3">
         <v>225</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="E52" s="3">
         <v>50</v>
       </c>
       <c r="F52" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G52" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -2385,22 +2385,22 @@
         <v>4</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C53" s="3">
         <v>225</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="E53" s="3">
         <v>51</v>
       </c>
       <c r="F53" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G53" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -2408,22 +2408,22 @@
         <v>4</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C54" s="3">
         <v>225</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="E54" s="3">
         <v>52</v>
       </c>
       <c r="F54" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G54" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -2431,22 +2431,22 @@
         <v>4</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C55" s="3">
         <v>225</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="E55" s="3">
         <v>53</v>
       </c>
       <c r="F55" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G55" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -2454,22 +2454,22 @@
         <v>4</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C56" s="3">
         <v>225</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="E56" s="3">
         <v>54</v>
       </c>
       <c r="F56" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G56" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -2477,22 +2477,22 @@
         <v>5</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C57" s="3">
         <v>226</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="E57" s="3">
         <v>55</v>
       </c>
       <c r="F57" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G57" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -2500,22 +2500,22 @@
         <v>5</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C58" s="3">
         <v>226</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="E58" s="3">
         <v>56</v>
       </c>
       <c r="F58" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="G58" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -2523,22 +2523,22 @@
         <v>5</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C59" s="3">
         <v>226</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="E59" s="3">
         <v>57</v>
       </c>
       <c r="F59" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G59" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -2546,22 +2546,22 @@
         <v>5</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C60" s="3">
         <v>226</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="E60" s="3">
         <v>58</v>
       </c>
       <c r="F60" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G60" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
@@ -2569,22 +2569,22 @@
         <v>5</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C61" s="3">
         <v>226</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="E61" s="3">
         <v>59</v>
       </c>
       <c r="F61" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G61" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
@@ -2592,22 +2592,22 @@
         <v>5</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C62" s="3">
         <v>226</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="E62" s="3">
         <v>60</v>
       </c>
       <c r="F62" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G62" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
@@ -2615,22 +2615,22 @@
         <v>5</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C63" s="3">
         <v>226</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="E63" s="3">
         <v>61</v>
       </c>
       <c r="F63" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G63" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
@@ -2638,22 +2638,22 @@
         <v>5</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C64" s="3">
         <v>226</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="E64" s="3">
         <v>62</v>
       </c>
       <c r="F64" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G64" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
@@ -2661,22 +2661,22 @@
         <v>5</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C65" s="3">
         <v>226</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="E65" s="3">
         <v>63</v>
       </c>
       <c r="F65" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G65" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
@@ -2684,22 +2684,22 @@
         <v>5</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C66" s="3">
         <v>226</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="E66" s="3">
         <v>64</v>
       </c>
       <c r="F66" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G66" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
@@ -2707,22 +2707,22 @@
         <v>5</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C67" s="3">
         <v>226</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="E67" s="3">
         <v>65</v>
       </c>
       <c r="F67" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G67" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
@@ -2730,22 +2730,22 @@
         <v>6</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C68" s="3">
         <v>227</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="E68" s="3">
         <v>66</v>
       </c>
       <c r="F68" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G68" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
@@ -2753,22 +2753,22 @@
         <v>6</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C69" s="3">
         <v>227</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="E69" s="3">
         <v>67</v>
       </c>
       <c r="F69" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="G69" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
@@ -2776,22 +2776,22 @@
         <v>6</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C70" s="3">
         <v>227</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="E70" s="3">
         <v>68</v>
       </c>
       <c r="F70" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G70" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
@@ -2799,22 +2799,22 @@
         <v>6</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C71" s="3">
         <v>227</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="E71" s="3">
         <v>69</v>
       </c>
       <c r="F71" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G71" t="s">
-        <v>99</v>
+        <v>226</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
@@ -2822,22 +2822,22 @@
         <v>6</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C72" s="3">
         <v>227</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="E72" s="3">
         <v>70</v>
       </c>
       <c r="F72" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G72" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
@@ -2845,22 +2845,22 @@
         <v>6</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C73" s="3">
         <v>227</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="E73" s="3">
         <v>71</v>
       </c>
       <c r="F73" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G73" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
@@ -2868,22 +2868,22 @@
         <v>6</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C74" s="3">
         <v>227</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="E74" s="3">
         <v>72</v>
       </c>
       <c r="F74" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G74" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
@@ -2891,22 +2891,22 @@
         <v>6</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C75" s="3">
         <v>227</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="E75" s="3">
         <v>73</v>
       </c>
       <c r="F75" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G75" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
@@ -2914,22 +2914,22 @@
         <v>6</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C76" s="3">
         <v>227</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="E76" s="3">
         <v>74</v>
       </c>
       <c r="F76" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G76" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
@@ -2937,22 +2937,22 @@
         <v>6</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C77" s="3">
         <v>227</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="E77" s="3">
         <v>75</v>
       </c>
       <c r="F77" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G77" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
@@ -2960,22 +2960,22 @@
         <v>6</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C78" s="3">
         <v>227</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="E78" s="3">
         <v>76</v>
       </c>
       <c r="F78" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G78" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
@@ -2983,22 +2983,22 @@
         <v>7</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>17</v>
+        <v>212</v>
       </c>
       <c r="C79" s="3">
         <v>228</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="E79" s="3">
         <v>77</v>
       </c>
       <c r="F79" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G79" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
@@ -3006,22 +3006,22 @@
         <v>7</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>17</v>
+        <v>212</v>
       </c>
       <c r="C80" s="3">
         <v>228</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="E80" s="3">
         <v>78</v>
       </c>
       <c r="F80" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="G80" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
@@ -3029,22 +3029,22 @@
         <v>7</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>17</v>
+        <v>212</v>
       </c>
       <c r="C81" s="3">
         <v>228</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="E81" s="3">
         <v>79</v>
       </c>
       <c r="F81" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G81" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
@@ -3052,22 +3052,22 @@
         <v>7</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>17</v>
+        <v>212</v>
       </c>
       <c r="C82" s="3">
         <v>228</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="E82" s="3">
         <v>80</v>
       </c>
       <c r="F82" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G82" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
@@ -3075,22 +3075,22 @@
         <v>7</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>17</v>
+        <v>212</v>
       </c>
       <c r="C83" s="3">
         <v>228</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="E83" s="3">
         <v>81</v>
       </c>
       <c r="F83" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G83" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
@@ -3098,25 +3098,25 @@
         <v>7</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>17</v>
+        <v>212</v>
       </c>
       <c r="C84" s="3">
         <v>228</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="E84" s="3">
         <v>82</v>
       </c>
       <c r="F84" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G84" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="H84" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
@@ -3124,22 +3124,22 @@
         <v>7</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>17</v>
+        <v>212</v>
       </c>
       <c r="C85" s="3">
         <v>228</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="E85" s="3">
         <v>83</v>
       </c>
       <c r="F85" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G85" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
@@ -3147,22 +3147,22 @@
         <v>7</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>17</v>
+        <v>212</v>
       </c>
       <c r="C86" s="3">
         <v>228</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="E86" s="3">
         <v>84</v>
       </c>
       <c r="F86" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G86" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
@@ -3170,22 +3170,22 @@
         <v>7</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>17</v>
+        <v>212</v>
       </c>
       <c r="C87" s="3">
         <v>228</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="E87" s="3">
         <v>85</v>
       </c>
       <c r="F87" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G87" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
@@ -3193,22 +3193,22 @@
         <v>7</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>17</v>
+        <v>212</v>
       </c>
       <c r="C88" s="3">
         <v>228</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="E88" s="3">
         <v>86</v>
       </c>
       <c r="F88" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G88" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
@@ -3216,22 +3216,22 @@
         <v>7</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>17</v>
+        <v>212</v>
       </c>
       <c r="C89" s="3">
         <v>228</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="E89" s="3">
         <v>87</v>
       </c>
       <c r="F89" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G89" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
@@ -3239,22 +3239,22 @@
         <v>8</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>18</v>
+        <v>213</v>
       </c>
       <c r="C90" s="3">
         <v>229</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="E90" s="3">
         <v>88</v>
       </c>
       <c r="F90" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G90" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
@@ -3262,22 +3262,22 @@
         <v>8</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>18</v>
+        <v>213</v>
       </c>
       <c r="C91" s="3">
         <v>229</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="E91" s="3">
         <v>89</v>
       </c>
       <c r="F91" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="G91" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
@@ -3285,22 +3285,22 @@
         <v>8</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>18</v>
+        <v>213</v>
       </c>
       <c r="C92" s="3">
         <v>229</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="E92" s="3">
         <v>90</v>
       </c>
       <c r="F92" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G92" t="s">
-        <v>121</v>
+        <v>227</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
@@ -3308,22 +3308,22 @@
         <v>8</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>18</v>
+        <v>213</v>
       </c>
       <c r="C93" s="3">
         <v>229</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="E93" s="3">
         <v>91</v>
       </c>
       <c r="F93" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G93" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
@@ -3331,22 +3331,22 @@
         <v>8</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>18</v>
+        <v>213</v>
       </c>
       <c r="C94" s="3">
         <v>229</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="E94" s="3">
         <v>92</v>
       </c>
       <c r="F94" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G94" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
@@ -3354,22 +3354,22 @@
         <v>8</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>18</v>
+        <v>213</v>
       </c>
       <c r="C95" s="3">
         <v>229</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="E95" s="3">
         <v>93</v>
       </c>
       <c r="F95" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G95" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
@@ -3377,22 +3377,22 @@
         <v>8</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>18</v>
+        <v>213</v>
       </c>
       <c r="C96" s="3">
         <v>229</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="E96" s="3">
         <v>94</v>
       </c>
       <c r="F96" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G96" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
@@ -3400,22 +3400,22 @@
         <v>8</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>18</v>
+        <v>213</v>
       </c>
       <c r="C97" s="3">
         <v>229</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="E97" s="3">
         <v>95</v>
       </c>
       <c r="F97" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G97" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
@@ -3423,22 +3423,22 @@
         <v>8</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>18</v>
+        <v>213</v>
       </c>
       <c r="C98" s="3">
         <v>229</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="E98" s="3">
         <v>96</v>
       </c>
       <c r="F98" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G98" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
@@ -3446,22 +3446,22 @@
         <v>8</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>18</v>
+        <v>213</v>
       </c>
       <c r="C99" s="3">
         <v>229</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="E99" s="3">
         <v>97</v>
       </c>
       <c r="F99" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G99" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
@@ -3469,22 +3469,22 @@
         <v>8</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>18</v>
+        <v>213</v>
       </c>
       <c r="C100" s="3">
         <v>229</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="E100" s="3">
         <v>98</v>
       </c>
       <c r="F100" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G100" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
@@ -3492,22 +3492,22 @@
         <v>9</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C101" s="3">
         <v>230</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="E101" s="3">
         <v>99</v>
       </c>
       <c r="F101" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G101" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
@@ -3515,22 +3515,22 @@
         <v>9</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C102" s="3">
         <v>230</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="E102" s="3">
         <v>100</v>
       </c>
       <c r="F102" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="G102" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
@@ -3538,22 +3538,22 @@
         <v>9</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C103" s="3">
         <v>230</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="E103" s="3">
         <v>101</v>
       </c>
       <c r="F103" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G103" t="s">
-        <v>131</v>
+        <v>228</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
@@ -3561,22 +3561,22 @@
         <v>9</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C104" s="3">
         <v>230</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="E104" s="3">
         <v>102</v>
       </c>
       <c r="F104" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G104" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
@@ -3584,22 +3584,22 @@
         <v>9</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C105" s="3">
         <v>230</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="E105" s="3">
         <v>103</v>
       </c>
       <c r="F105" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G105" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
@@ -3607,22 +3607,22 @@
         <v>9</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C106" s="3">
         <v>230</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="E106" s="3">
         <v>104</v>
       </c>
       <c r="F106" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G106" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
@@ -3630,22 +3630,22 @@
         <v>9</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C107" s="3">
         <v>230</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="E107" s="3">
         <v>105</v>
       </c>
       <c r="F107" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G107" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
@@ -3653,22 +3653,22 @@
         <v>9</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C108" s="3">
         <v>230</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="E108" s="3">
         <v>106</v>
       </c>
       <c r="F108" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G108" t="s">
-        <v>137</v>
+        <v>229</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
@@ -3676,22 +3676,22 @@
         <v>9</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C109" s="3">
         <v>230</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="E109" s="3">
         <v>107</v>
       </c>
       <c r="F109" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G109" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
@@ -3699,22 +3699,22 @@
         <v>9</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C110" s="3">
         <v>230</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="E110" s="3">
         <v>108</v>
       </c>
       <c r="F110" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G110" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
@@ -3722,22 +3722,22 @@
         <v>9</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C111" s="3">
         <v>230</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="E111" s="3">
         <v>109</v>
       </c>
       <c r="F111" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G111" t="s">
-        <v>140</v>
+        <v>230</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
@@ -3745,22 +3745,22 @@
         <v>10</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C112" s="3">
         <v>231</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="E112" s="3">
         <v>110</v>
       </c>
       <c r="F112" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G112" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
@@ -3768,22 +3768,22 @@
         <v>10</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C113" s="3">
         <v>231</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="E113" s="3">
         <v>111</v>
       </c>
       <c r="F113" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="G113" t="s">
-        <v>145</v>
+        <v>231</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
@@ -3791,22 +3791,22 @@
         <v>10</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C114" s="3">
         <v>231</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="E114" s="3">
         <v>112</v>
       </c>
       <c r="F114" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G114" t="s">
-        <v>142</v>
+        <v>122</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
@@ -3814,22 +3814,22 @@
         <v>10</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C115" s="3">
         <v>231</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="E115" s="3">
         <v>113</v>
       </c>
       <c r="F115" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G115" t="s">
-        <v>143</v>
+        <v>123</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
@@ -3837,22 +3837,22 @@
         <v>10</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C116" s="3">
         <v>231</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="E116" s="3">
         <v>114</v>
       </c>
       <c r="F116" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G116" t="s">
-        <v>144</v>
+        <v>124</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
@@ -3860,22 +3860,22 @@
         <v>10</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C117" s="3">
         <v>231</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="E117" s="3">
         <v>115</v>
       </c>
       <c r="F117" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G117" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
@@ -3883,22 +3883,22 @@
         <v>10</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C118" s="3">
         <v>231</v>
       </c>
       <c r="D118" s="4" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="E118" s="3">
         <v>116</v>
       </c>
       <c r="F118" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G118" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
@@ -3906,22 +3906,22 @@
         <v>10</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C119" s="3">
         <v>231</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="E119" s="3">
         <v>117</v>
       </c>
       <c r="F119" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G119" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
@@ -3929,22 +3929,22 @@
         <v>10</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C120" s="3">
         <v>231</v>
       </c>
       <c r="D120" s="4" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="E120" s="3">
         <v>118</v>
       </c>
       <c r="F120" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G120" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
@@ -3952,22 +3952,22 @@
         <v>10</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C121" s="3">
         <v>231</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="E121" s="3">
         <v>119</v>
       </c>
       <c r="F121" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G121" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
@@ -3975,22 +3975,22 @@
         <v>10</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C122" s="3">
         <v>231</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="E122" s="3">
         <v>120</v>
       </c>
       <c r="F122" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G122" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
@@ -3998,22 +3998,22 @@
         <v>11</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C123" s="3">
         <v>232</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="E123" s="3">
         <v>121</v>
       </c>
       <c r="F123" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G123" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
@@ -4021,22 +4021,22 @@
         <v>11</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C124" s="3">
         <v>232</v>
       </c>
       <c r="D124" s="4" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="E124" s="3">
         <v>122</v>
       </c>
       <c r="F124" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="G124" t="s">
-        <v>156</v>
+        <v>134</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
@@ -4044,22 +4044,22 @@
         <v>11</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C125" s="3">
         <v>232</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="E125" s="3">
         <v>123</v>
       </c>
       <c r="F125" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G125" t="s">
-        <v>153</v>
+        <v>132</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
@@ -4067,22 +4067,22 @@
         <v>11</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C126" s="3">
         <v>232</v>
       </c>
       <c r="D126" s="4" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="E126" s="3">
         <v>124</v>
       </c>
       <c r="F126" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G126" t="s">
-        <v>154</v>
+        <v>232</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
@@ -4090,22 +4090,22 @@
         <v>11</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C127" s="3">
         <v>232</v>
       </c>
       <c r="D127" s="4" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="E127" s="3">
         <v>125</v>
       </c>
       <c r="F127" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G127" t="s">
-        <v>155</v>
+        <v>133</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
@@ -4113,22 +4113,22 @@
         <v>11</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C128" s="3">
         <v>232</v>
       </c>
       <c r="D128" s="4" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="E128" s="3">
         <v>126</v>
       </c>
       <c r="F128" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G128" t="s">
-        <v>157</v>
+        <v>135</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
@@ -4136,22 +4136,22 @@
         <v>11</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C129" s="3">
         <v>232</v>
       </c>
       <c r="D129" s="4" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="E129" s="3">
         <v>127</v>
       </c>
       <c r="F129" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G129" t="s">
-        <v>158</v>
+        <v>136</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
@@ -4159,22 +4159,22 @@
         <v>11</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C130" s="3">
         <v>232</v>
       </c>
       <c r="D130" s="4" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="E130" s="3">
         <v>128</v>
       </c>
       <c r="F130" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G130" t="s">
-        <v>159</v>
+        <v>137</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
@@ -4182,22 +4182,22 @@
         <v>11</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C131" s="3">
         <v>232</v>
       </c>
       <c r="D131" s="4" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="E131" s="3">
         <v>129</v>
       </c>
       <c r="F131" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G131" t="s">
-        <v>160</v>
+        <v>138</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
@@ -4205,22 +4205,22 @@
         <v>11</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C132" s="3">
         <v>232</v>
       </c>
       <c r="D132" s="4" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="E132" s="3">
         <v>130</v>
       </c>
       <c r="F132" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G132" t="s">
-        <v>161</v>
+        <v>139</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
@@ -4228,22 +4228,22 @@
         <v>11</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C133" s="3">
         <v>232</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="E133" s="3">
         <v>131</v>
       </c>
       <c r="F133" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G133" t="s">
-        <v>162</v>
+        <v>140</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
@@ -4251,22 +4251,22 @@
         <v>12</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C134" s="3">
         <v>233</v>
       </c>
       <c r="D134" s="4" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E134" s="3">
         <v>132</v>
       </c>
       <c r="F134" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G134" t="s">
-        <v>163</v>
+        <v>141</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
@@ -4274,22 +4274,22 @@
         <v>12</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C135" s="3">
         <v>233</v>
       </c>
       <c r="D135" s="4" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E135" s="3">
         <v>133</v>
       </c>
       <c r="F135" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="G135" t="s">
-        <v>166</v>
+        <v>144</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
@@ -4297,22 +4297,22 @@
         <v>12</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C136" s="3">
         <v>233</v>
       </c>
       <c r="D136" s="4" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E136" s="3">
         <v>134</v>
       </c>
       <c r="F136" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G136" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
@@ -4320,22 +4320,22 @@
         <v>12</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C137" s="3">
         <v>233</v>
       </c>
       <c r="D137" s="4" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E137" s="3">
         <v>135</v>
       </c>
       <c r="F137" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G137" t="s">
-        <v>165</v>
+        <v>143</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
@@ -4343,22 +4343,22 @@
         <v>12</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C138" s="3">
         <v>233</v>
       </c>
       <c r="D138" s="4" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E138" s="3">
         <v>136</v>
       </c>
       <c r="F138" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G138" t="s">
-        <v>167</v>
+        <v>145</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
@@ -4366,22 +4366,22 @@
         <v>12</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C139" s="3">
         <v>233</v>
       </c>
       <c r="D139" s="4" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E139" s="3">
         <v>137</v>
       </c>
       <c r="F139" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G139" t="s">
-        <v>168</v>
+        <v>146</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
@@ -4389,22 +4389,22 @@
         <v>12</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C140" s="3">
         <v>233</v>
       </c>
       <c r="D140" s="4" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E140" s="3">
         <v>138</v>
       </c>
       <c r="F140" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G140" t="s">
-        <v>169</v>
+        <v>233</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
@@ -4412,22 +4412,22 @@
         <v>12</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C141" s="3">
         <v>233</v>
       </c>
       <c r="D141" s="4" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E141" s="3">
         <v>139</v>
       </c>
       <c r="F141" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G141" t="s">
-        <v>170</v>
+        <v>147</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
@@ -4435,22 +4435,22 @@
         <v>12</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C142" s="3">
         <v>233</v>
       </c>
       <c r="D142" s="4" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E142" s="3">
         <v>140</v>
       </c>
       <c r="F142" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G142" t="s">
-        <v>171</v>
+        <v>148</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
@@ -4458,22 +4458,22 @@
         <v>12</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C143" s="3">
         <v>233</v>
       </c>
       <c r="D143" s="4" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E143" s="3">
         <v>141</v>
       </c>
       <c r="F143" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G143" t="s">
-        <v>172</v>
+        <v>149</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
@@ -4481,22 +4481,22 @@
         <v>12</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C144" s="3">
         <v>233</v>
       </c>
       <c r="D144" s="4" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E144" s="3">
         <v>142</v>
       </c>
       <c r="F144" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G144" t="s">
-        <v>173</v>
+        <v>150</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
@@ -4504,22 +4504,22 @@
         <v>13</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>26</v>
+        <v>214</v>
       </c>
       <c r="C145" s="3">
         <v>234</v>
       </c>
       <c r="D145" s="4" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="E145" s="3">
         <v>143</v>
       </c>
       <c r="F145" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G145" t="s">
-        <v>174</v>
+        <v>234</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
@@ -4527,22 +4527,22 @@
         <v>13</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>26</v>
+        <v>214</v>
       </c>
       <c r="C146" s="3">
         <v>234</v>
       </c>
       <c r="D146" s="4" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="E146" s="3">
         <v>144</v>
       </c>
       <c r="F146" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="G146" t="s">
-        <v>178</v>
+        <v>152</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
@@ -4550,22 +4550,22 @@
         <v>13</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>26</v>
+        <v>214</v>
       </c>
       <c r="C147" s="3">
         <v>234</v>
       </c>
       <c r="D147" s="4" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="E147" s="3">
         <v>145</v>
       </c>
       <c r="F147" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G147" t="s">
-        <v>175</v>
+        <v>151</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
@@ -4573,22 +4573,22 @@
         <v>13</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>26</v>
+        <v>214</v>
       </c>
       <c r="C148" s="3">
         <v>234</v>
       </c>
       <c r="D148" s="4" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="E148" s="3">
         <v>146</v>
       </c>
       <c r="F148" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G148" t="s">
-        <v>176</v>
+        <v>235</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
@@ -4596,22 +4596,22 @@
         <v>13</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>26</v>
+        <v>214</v>
       </c>
       <c r="C149" s="3">
         <v>234</v>
       </c>
       <c r="D149" s="4" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="E149" s="3">
         <v>147</v>
       </c>
       <c r="F149" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G149" t="s">
-        <v>177</v>
+        <v>236</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
@@ -4619,22 +4619,22 @@
         <v>13</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>26</v>
+        <v>214</v>
       </c>
       <c r="C150" s="3">
         <v>234</v>
       </c>
       <c r="D150" s="4" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="E150" s="3">
         <v>148</v>
       </c>
       <c r="F150" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G150" t="s">
-        <v>179</v>
+        <v>153</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
@@ -4642,22 +4642,22 @@
         <v>13</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>26</v>
+        <v>214</v>
       </c>
       <c r="C151" s="3">
         <v>234</v>
       </c>
       <c r="D151" s="4" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="E151" s="3">
         <v>149</v>
       </c>
       <c r="F151" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G151" t="s">
-        <v>180</v>
+        <v>154</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
@@ -4665,22 +4665,22 @@
         <v>13</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>26</v>
+        <v>214</v>
       </c>
       <c r="C152" s="3">
         <v>234</v>
       </c>
       <c r="D152" s="4" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="E152" s="3">
         <v>150</v>
       </c>
       <c r="F152" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G152" t="s">
-        <v>181</v>
+        <v>155</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
@@ -4688,22 +4688,22 @@
         <v>13</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>26</v>
+        <v>214</v>
       </c>
       <c r="C153" s="3">
         <v>234</v>
       </c>
       <c r="D153" s="4" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="E153" s="3">
         <v>151</v>
       </c>
       <c r="F153" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G153" t="s">
-        <v>182</v>
+        <v>156</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
@@ -4711,22 +4711,22 @@
         <v>13</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>26</v>
+        <v>214</v>
       </c>
       <c r="C154" s="3">
         <v>234</v>
       </c>
       <c r="D154" s="4" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="E154" s="3">
         <v>152</v>
       </c>
       <c r="F154" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G154" t="s">
-        <v>183</v>
+        <v>157</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
@@ -4734,22 +4734,22 @@
         <v>13</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>26</v>
+        <v>214</v>
       </c>
       <c r="C155" s="3">
         <v>234</v>
       </c>
       <c r="D155" s="4" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="E155" s="3">
         <v>153</v>
       </c>
       <c r="F155" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G155" t="s">
-        <v>184</v>
+        <v>237</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
@@ -4757,22 +4757,22 @@
         <v>14</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C156" s="3">
         <v>235</v>
       </c>
       <c r="D156" s="4" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="E156" s="3">
         <v>154</v>
       </c>
       <c r="F156" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G156" t="s">
-        <v>185</v>
+        <v>158</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
@@ -4780,22 +4780,22 @@
         <v>14</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C157" s="3">
         <v>235</v>
       </c>
       <c r="D157" s="4" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="E157" s="3">
         <v>155</v>
       </c>
       <c r="F157" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="G157" t="s">
-        <v>189</v>
+        <v>238</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
@@ -4803,22 +4803,22 @@
         <v>14</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C158" s="3">
         <v>235</v>
       </c>
       <c r="D158" s="4" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="E158" s="3">
         <v>156</v>
       </c>
       <c r="F158" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G158" t="s">
-        <v>186</v>
+        <v>159</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
@@ -4826,22 +4826,22 @@
         <v>14</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C159" s="3">
         <v>235</v>
       </c>
       <c r="D159" s="4" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="E159" s="3">
         <v>157</v>
       </c>
       <c r="F159" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G159" t="s">
-        <v>187</v>
+        <v>160</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
@@ -4849,22 +4849,22 @@
         <v>14</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C160" s="3">
         <v>235</v>
       </c>
       <c r="D160" s="4" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="E160" s="3">
         <v>158</v>
       </c>
       <c r="F160" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G160" t="s">
-        <v>188</v>
+        <v>239</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
@@ -4872,22 +4872,22 @@
         <v>14</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C161" s="3">
         <v>235</v>
       </c>
       <c r="D161" s="4" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="E161" s="3">
         <v>159</v>
       </c>
       <c r="F161" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G161" t="s">
-        <v>190</v>
+        <v>161</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
@@ -4895,22 +4895,22 @@
         <v>14</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C162" s="3">
         <v>235</v>
       </c>
       <c r="D162" s="4" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="E162" s="3">
         <v>160</v>
       </c>
       <c r="F162" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G162" t="s">
-        <v>191</v>
+        <v>162</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
@@ -4918,22 +4918,22 @@
         <v>14</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C163" s="3">
         <v>235</v>
       </c>
       <c r="D163" s="4" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="E163" s="3">
         <v>161</v>
       </c>
       <c r="F163" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G163" t="s">
-        <v>192</v>
+        <v>163</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
@@ -4941,22 +4941,22 @@
         <v>14</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C164" s="3">
         <v>235</v>
       </c>
       <c r="D164" s="4" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="E164" s="3">
         <v>162</v>
       </c>
       <c r="F164" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G164" t="s">
-        <v>193</v>
+        <v>164</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
@@ -4964,22 +4964,22 @@
         <v>14</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C165" s="3">
         <v>235</v>
       </c>
       <c r="D165" s="4" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="E165" s="3">
         <v>163</v>
       </c>
       <c r="F165" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G165" t="s">
-        <v>194</v>
+        <v>165</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
@@ -4987,22 +4987,22 @@
         <v>14</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C166" s="3">
         <v>235</v>
       </c>
       <c r="D166" s="4" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="E166" s="3">
         <v>164</v>
       </c>
       <c r="F166" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G166" t="s">
-        <v>195</v>
+        <v>240</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
@@ -5010,22 +5010,22 @@
         <v>15</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C167" s="3">
         <v>236</v>
       </c>
       <c r="D167" s="4" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="E167" s="3">
         <v>165</v>
       </c>
       <c r="F167" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G167" t="s">
-        <v>196</v>
+        <v>241</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
@@ -5033,22 +5033,22 @@
         <v>15</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C168" s="3">
         <v>236</v>
       </c>
       <c r="D168" s="4" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="E168" s="3">
         <v>166</v>
       </c>
       <c r="F168" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="G168" t="s">
-        <v>200</v>
+        <v>242</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
@@ -5056,22 +5056,22 @@
         <v>15</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C169" s="3">
         <v>236</v>
       </c>
       <c r="D169" s="4" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="E169" s="3">
         <v>167</v>
       </c>
       <c r="F169" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G169" t="s">
-        <v>198</v>
+        <v>243</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
@@ -5079,22 +5079,22 @@
         <v>15</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C170" s="3">
         <v>236</v>
       </c>
       <c r="D170" s="4" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="E170" s="3">
         <v>168</v>
       </c>
       <c r="F170" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G170" t="s">
-        <v>199</v>
+        <v>167</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
@@ -5102,22 +5102,22 @@
         <v>15</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C171" s="3">
         <v>236</v>
       </c>
       <c r="D171" s="4" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="E171" s="3">
         <v>169</v>
       </c>
       <c r="F171" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G171" t="s">
-        <v>197</v>
+        <v>166</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
@@ -5125,22 +5125,22 @@
         <v>15</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C172" s="3">
         <v>236</v>
       </c>
       <c r="D172" s="4" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="E172" s="3">
         <v>170</v>
       </c>
       <c r="F172" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G172" t="s">
-        <v>201</v>
+        <v>168</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
@@ -5148,22 +5148,22 @@
         <v>15</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C173" s="3">
         <v>236</v>
       </c>
       <c r="D173" s="4" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="E173" s="3">
         <v>171</v>
       </c>
       <c r="F173" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G173" t="s">
-        <v>202</v>
+        <v>169</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
@@ -5171,22 +5171,22 @@
         <v>15</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C174" s="3">
         <v>236</v>
       </c>
       <c r="D174" s="4" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="E174" s="3">
         <v>172</v>
       </c>
       <c r="F174" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G174" t="s">
-        <v>203</v>
+        <v>170</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
@@ -5194,22 +5194,22 @@
         <v>15</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C175" s="3">
         <v>236</v>
       </c>
       <c r="D175" s="4" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="E175" s="3">
         <v>173</v>
       </c>
       <c r="F175" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G175" t="s">
-        <v>204</v>
+        <v>171</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
@@ -5217,22 +5217,22 @@
         <v>15</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C176" s="3">
         <v>236</v>
       </c>
       <c r="D176" s="4" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="E176" s="3">
         <v>174</v>
       </c>
       <c r="F176" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G176" t="s">
-        <v>205</v>
+        <v>244</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
@@ -5240,22 +5240,22 @@
         <v>15</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C177" s="3">
         <v>236</v>
       </c>
       <c r="D177" s="4" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="E177" s="3">
         <v>175</v>
       </c>
       <c r="F177" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G177" t="s">
-        <v>206</v>
+        <v>172</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
@@ -5263,22 +5263,22 @@
         <v>16</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>28</v>
+        <v>215</v>
       </c>
       <c r="C178" s="3">
         <v>237</v>
       </c>
       <c r="D178" s="4" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E178" s="3">
         <v>176</v>
       </c>
       <c r="F178" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G178" t="s">
-        <v>207</v>
+        <v>245</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
@@ -5286,22 +5286,22 @@
         <v>16</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>28</v>
+        <v>215</v>
       </c>
       <c r="C179" s="3">
         <v>237</v>
       </c>
       <c r="D179" s="4" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E179" s="3">
         <v>177</v>
       </c>
       <c r="F179" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="G179" t="s">
-        <v>211</v>
+        <v>175</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
@@ -5309,22 +5309,22 @@
         <v>16</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>28</v>
+        <v>215</v>
       </c>
       <c r="C180" s="3">
         <v>237</v>
       </c>
       <c r="D180" s="4" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E180" s="3">
         <v>178</v>
       </c>
       <c r="F180" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G180" t="s">
-        <v>208</v>
+        <v>173</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
@@ -5332,22 +5332,22 @@
         <v>16</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>28</v>
+        <v>215</v>
       </c>
       <c r="C181" s="3">
         <v>237</v>
       </c>
       <c r="D181" s="4" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E181" s="3">
         <v>179</v>
       </c>
       <c r="F181" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G181" t="s">
-        <v>209</v>
+        <v>246</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
@@ -5355,22 +5355,22 @@
         <v>16</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>28</v>
+        <v>215</v>
       </c>
       <c r="C182" s="3">
         <v>237</v>
       </c>
       <c r="D182" s="4" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E182" s="3">
         <v>180</v>
       </c>
       <c r="F182" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G182" t="s">
-        <v>210</v>
+        <v>174</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
@@ -5378,22 +5378,22 @@
         <v>16</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>28</v>
+        <v>215</v>
       </c>
       <c r="C183" s="3">
         <v>237</v>
       </c>
       <c r="D183" s="4" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E183" s="3">
         <v>181</v>
       </c>
       <c r="F183" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G183" t="s">
-        <v>212</v>
+        <v>176</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
@@ -5401,22 +5401,22 @@
         <v>16</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>28</v>
+        <v>215</v>
       </c>
       <c r="C184" s="3">
         <v>237</v>
       </c>
       <c r="D184" s="4" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E184" s="3">
         <v>182</v>
       </c>
       <c r="F184" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G184" t="s">
-        <v>213</v>
+        <v>247</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
@@ -5424,22 +5424,22 @@
         <v>16</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>28</v>
+        <v>215</v>
       </c>
       <c r="C185" s="3">
         <v>237</v>
       </c>
       <c r="D185" s="4" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E185" s="3">
         <v>183</v>
       </c>
       <c r="F185" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G185" t="s">
-        <v>214</v>
+        <v>177</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
@@ -5447,22 +5447,22 @@
         <v>16</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>28</v>
+        <v>215</v>
       </c>
       <c r="C186" s="3">
         <v>237</v>
       </c>
       <c r="D186" s="4" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E186" s="3">
         <v>184</v>
       </c>
       <c r="F186" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G186" t="s">
-        <v>215</v>
+        <v>178</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
@@ -5470,22 +5470,22 @@
         <v>16</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>28</v>
+        <v>215</v>
       </c>
       <c r="C187" s="3">
         <v>237</v>
       </c>
       <c r="D187" s="4" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E187" s="3">
         <v>185</v>
       </c>
       <c r="F187" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G187" t="s">
-        <v>216</v>
+        <v>179</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
@@ -5493,22 +5493,22 @@
         <v>16</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>28</v>
+        <v>215</v>
       </c>
       <c r="C188" s="3">
         <v>237</v>
       </c>
       <c r="D188" s="4" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E188" s="3">
         <v>186</v>
       </c>
       <c r="F188" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G188" t="s">
-        <v>217</v>
+        <v>180</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
@@ -5516,22 +5516,22 @@
         <v>17</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C189" s="3">
         <v>238</v>
       </c>
       <c r="D189" s="4" t="s">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="E189" s="3">
         <v>187</v>
       </c>
       <c r="F189" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G189" t="s">
-        <v>218</v>
+        <v>181</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
@@ -5539,22 +5539,22 @@
         <v>17</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C190" s="3">
         <v>238</v>
       </c>
       <c r="D190" s="4" t="s">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="E190" s="3">
         <v>188</v>
       </c>
       <c r="F190" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="G190" t="s">
-        <v>222</v>
+        <v>248</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
@@ -5562,22 +5562,22 @@
         <v>17</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C191" s="3">
         <v>238</v>
       </c>
       <c r="D191" s="4" t="s">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="E191" s="3">
         <v>189</v>
       </c>
       <c r="F191" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G191" t="s">
-        <v>219</v>
+        <v>182</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
@@ -5585,22 +5585,22 @@
         <v>17</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C192" s="3">
         <v>238</v>
       </c>
       <c r="D192" s="4" t="s">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="E192" s="3">
         <v>190</v>
       </c>
       <c r="F192" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G192" t="s">
-        <v>220</v>
+        <v>183</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
@@ -5608,22 +5608,22 @@
         <v>17</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C193" s="3">
         <v>238</v>
       </c>
       <c r="D193" s="4" t="s">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="E193" s="3">
         <v>191</v>
       </c>
       <c r="F193" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G193" t="s">
-        <v>221</v>
+        <v>184</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
@@ -5631,22 +5631,22 @@
         <v>17</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C194" s="3">
         <v>238</v>
       </c>
       <c r="D194" s="4" t="s">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="E194" s="3">
         <v>192</v>
       </c>
       <c r="F194" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G194" t="s">
-        <v>223</v>
+        <v>185</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
@@ -5654,22 +5654,22 @@
         <v>17</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C195" s="3">
         <v>238</v>
       </c>
       <c r="D195" s="4" t="s">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="E195" s="3">
         <v>193</v>
       </c>
       <c r="F195" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G195" t="s">
-        <v>224</v>
+        <v>186</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
@@ -5677,22 +5677,22 @@
         <v>17</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C196" s="3">
         <v>238</v>
       </c>
       <c r="D196" s="4" t="s">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="E196" s="3">
         <v>194</v>
       </c>
       <c r="F196" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G196" t="s">
-        <v>225</v>
+        <v>187</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
@@ -5700,22 +5700,22 @@
         <v>17</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C197" s="3">
         <v>238</v>
       </c>
       <c r="D197" s="4" t="s">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="E197" s="3">
         <v>195</v>
       </c>
       <c r="F197" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G197" t="s">
-        <v>250</v>
+        <v>208</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
@@ -5723,22 +5723,22 @@
         <v>17</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C198" s="3">
         <v>238</v>
       </c>
       <c r="D198" s="4" t="s">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="E198" s="3">
         <v>196</v>
       </c>
       <c r="F198" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G198" t="s">
-        <v>226</v>
+        <v>188</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
@@ -5746,22 +5746,22 @@
         <v>17</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C199" s="3">
         <v>238</v>
       </c>
       <c r="D199" s="4" t="s">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="E199" s="3">
         <v>197</v>
       </c>
       <c r="F199" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G199" t="s">
-        <v>227</v>
+        <v>189</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
@@ -5769,22 +5769,22 @@
         <v>18</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>20</v>
+        <v>216</v>
       </c>
       <c r="C200" s="3">
         <v>239</v>
       </c>
       <c r="D200" s="4" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="E200" s="3">
         <v>198</v>
       </c>
       <c r="F200" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G200" t="s">
-        <v>228</v>
+        <v>190</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
@@ -5792,22 +5792,22 @@
         <v>18</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>20</v>
+        <v>216</v>
       </c>
       <c r="C201" s="3">
         <v>239</v>
       </c>
       <c r="D201" s="4" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="E201" s="3">
         <v>199</v>
       </c>
       <c r="F201" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="G201" t="s">
-        <v>232</v>
+        <v>192</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
@@ -5815,22 +5815,22 @@
         <v>18</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>20</v>
+        <v>216</v>
       </c>
       <c r="C202" s="3">
         <v>239</v>
       </c>
       <c r="D202" s="4" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="E202" s="3">
         <v>200</v>
       </c>
       <c r="F202" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G202" t="s">
-        <v>229</v>
+        <v>249</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
@@ -5838,22 +5838,22 @@
         <v>18</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>20</v>
+        <v>216</v>
       </c>
       <c r="C203" s="3">
         <v>239</v>
       </c>
       <c r="D203" s="4" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="E203" s="3">
         <v>201</v>
       </c>
       <c r="F203" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G203" t="s">
-        <v>230</v>
+        <v>191</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
@@ -5861,22 +5861,22 @@
         <v>18</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>20</v>
+        <v>216</v>
       </c>
       <c r="C204" s="3">
         <v>239</v>
       </c>
       <c r="D204" s="4" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="E204" s="3">
         <v>202</v>
       </c>
       <c r="F204" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G204" t="s">
-        <v>231</v>
+        <v>250</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
@@ -5884,22 +5884,22 @@
         <v>18</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>20</v>
+        <v>216</v>
       </c>
       <c r="C205" s="3">
         <v>239</v>
       </c>
       <c r="D205" s="4" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="E205" s="3">
         <v>203</v>
       </c>
       <c r="F205" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G205" t="s">
-        <v>233</v>
+        <v>193</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
@@ -5907,22 +5907,22 @@
         <v>18</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>20</v>
+        <v>216</v>
       </c>
       <c r="C206" s="3">
         <v>239</v>
       </c>
       <c r="D206" s="4" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="E206" s="3">
         <v>204</v>
       </c>
       <c r="F206" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G206" t="s">
-        <v>234</v>
+        <v>194</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
@@ -5930,22 +5930,22 @@
         <v>18</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>20</v>
+        <v>216</v>
       </c>
       <c r="C207" s="3">
         <v>239</v>
       </c>
       <c r="D207" s="4" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="E207" s="3">
         <v>205</v>
       </c>
       <c r="F207" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G207" t="s">
-        <v>235</v>
+        <v>195</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
@@ -5953,22 +5953,22 @@
         <v>18</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>20</v>
+        <v>216</v>
       </c>
       <c r="C208" s="3">
         <v>239</v>
       </c>
       <c r="D208" s="4" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="E208" s="3">
         <v>206</v>
       </c>
       <c r="F208" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G208" t="s">
-        <v>236</v>
+        <v>251</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
@@ -5976,22 +5976,22 @@
         <v>18</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>20</v>
+        <v>216</v>
       </c>
       <c r="C209" s="3">
         <v>239</v>
       </c>
       <c r="D209" s="4" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="E209" s="3">
         <v>207</v>
       </c>
       <c r="F209" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G209" t="s">
-        <v>237</v>
+        <v>252</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
@@ -5999,22 +5999,22 @@
         <v>18</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>20</v>
+        <v>216</v>
       </c>
       <c r="C210" s="3">
         <v>239</v>
       </c>
       <c r="D210" s="4" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="E210" s="3">
         <v>208</v>
       </c>
       <c r="F210" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G210" t="s">
-        <v>238</v>
+        <v>196</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
@@ -6022,22 +6022,22 @@
         <v>19</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>27</v>
+        <v>217</v>
       </c>
       <c r="C211" s="3">
         <v>240</v>
       </c>
       <c r="D211" s="4" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="E211" s="3">
         <v>209</v>
       </c>
       <c r="F211" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G211" t="s">
-        <v>239</v>
+        <v>197</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
@@ -6045,22 +6045,22 @@
         <v>19</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>27</v>
+        <v>217</v>
       </c>
       <c r="C212" s="3">
         <v>240</v>
       </c>
       <c r="D212" s="4" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="E212" s="3">
         <v>210</v>
       </c>
       <c r="F212" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="G212" t="s">
-        <v>241</v>
+        <v>199</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
@@ -6068,22 +6068,22 @@
         <v>19</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>27</v>
+        <v>217</v>
       </c>
       <c r="C213" s="3">
         <v>240</v>
       </c>
       <c r="D213" s="4" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="E213" s="3">
         <v>211</v>
       </c>
       <c r="F213" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G213" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
@@ -6091,22 +6091,22 @@
         <v>19</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>27</v>
+        <v>217</v>
       </c>
       <c r="C214" s="3">
         <v>240</v>
       </c>
       <c r="D214" s="4" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="E214" s="3">
         <v>212</v>
       </c>
       <c r="F214" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G214" t="s">
-        <v>242</v>
+        <v>200</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
@@ -6114,22 +6114,22 @@
         <v>19</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>27</v>
+        <v>217</v>
       </c>
       <c r="C215" s="3">
         <v>240</v>
       </c>
       <c r="D215" s="4" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="E215" s="3">
         <v>213</v>
       </c>
       <c r="F215" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G215" t="s">
-        <v>243</v>
+        <v>201</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
@@ -6137,22 +6137,22 @@
         <v>19</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>27</v>
+        <v>217</v>
       </c>
       <c r="C216" s="3">
         <v>240</v>
       </c>
       <c r="D216" s="4" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="E216" s="3">
         <v>214</v>
       </c>
       <c r="F216" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G216" t="s">
-        <v>244</v>
+        <v>202</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
@@ -6160,22 +6160,22 @@
         <v>19</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>27</v>
+        <v>217</v>
       </c>
       <c r="C217" s="3">
         <v>240</v>
       </c>
       <c r="D217" s="4" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="E217" s="3">
         <v>215</v>
       </c>
       <c r="F217" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G217" t="s">
-        <v>245</v>
+        <v>203</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
@@ -6183,22 +6183,22 @@
         <v>19</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>27</v>
+        <v>217</v>
       </c>
       <c r="C218" s="3">
         <v>240</v>
       </c>
       <c r="D218" s="4" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="E218" s="3">
         <v>216</v>
       </c>
       <c r="F218" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G218" t="s">
-        <v>246</v>
+        <v>204</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.25">
@@ -6206,22 +6206,22 @@
         <v>19</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>27</v>
+        <v>217</v>
       </c>
       <c r="C219" s="3">
         <v>240</v>
       </c>
       <c r="D219" s="4" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="E219" s="3">
         <v>217</v>
       </c>
       <c r="F219" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G219" t="s">
-        <v>247</v>
+        <v>205</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.25">
@@ -6229,22 +6229,22 @@
         <v>19</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>27</v>
+        <v>217</v>
       </c>
       <c r="C220" s="3">
         <v>240</v>
       </c>
       <c r="D220" s="4" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="E220" s="3">
         <v>218</v>
       </c>
       <c r="F220" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G220" t="s">
-        <v>248</v>
+        <v>206</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
@@ -6252,22 +6252,22 @@
         <v>19</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>27</v>
+        <v>217</v>
       </c>
       <c r="C221" s="3">
         <v>240</v>
       </c>
       <c r="D221" s="4" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="E221" s="3">
         <v>219</v>
       </c>
       <c r="F221" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G221" t="s">
-        <v>249</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>
